--- a/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9147</v>
+        <v>9279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006482700229503031</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03174595295301127</v>
+        <v>0.03220615541389667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2366</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>524</v>
+        <v>662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5847</v>
+        <v>5976</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007314870230202324</v>
+        <v>0.007314870230202322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001618674292999327</v>
+        <v>0.002047245052853515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0180725143408377</v>
+        <v>0.01847224900686089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>4234</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1452</v>
+        <v>1362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13655</v>
+        <v>11515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00692285798020168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002374653928966273</v>
+        <v>0.002227138532018781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02232545602113509</v>
+        <v>0.01882661584296243</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>286255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278976</v>
+        <v>278844</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>288123</v>
@@ -821,7 +821,7 @@
         <v>0.993517299770497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9682540470469888</v>
+        <v>0.9677938445861032</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>321143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317662</v>
+        <v>317533</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>322985</v>
+        <v>322847</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9926851297697978</v>
+        <v>0.9926851297697976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819274856591629</v>
+        <v>0.9815277509931394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9983813257070007</v>
+        <v>0.9979527549471466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>804</v>
@@ -854,19 +854,19 @@
         <v>607398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>597977</v>
+        <v>600117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610180</v>
+        <v>610270</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9930771420197984</v>
+        <v>0.9930771420197981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9776745439788649</v>
+        <v>0.9811733841570378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976253460710338</v>
+        <v>0.9977728614679811</v>
       </c>
     </row>
     <row r="6">
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8268</v>
+        <v>7284</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.00466279998835393</v>
+        <v>0.004662799988353929</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0176208230463948</v>
+        <v>0.01552426576288258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -979,19 +979,19 @@
         <v>4259</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8457</v>
+        <v>8207</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008470130000704788</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003533610782536415</v>
+        <v>0.003561880623958236</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01681920033479171</v>
+        <v>0.01632267243979819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1000,19 +1000,19 @@
         <v>6447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3168</v>
+        <v>3042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12392</v>
+        <v>12248</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00663226445704984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003259318411502361</v>
+        <v>0.003129639248310064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.012748381638068</v>
+        <v>0.01260086918398705</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>467017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460937</v>
+        <v>461921</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>469205</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9953372000116461</v>
+        <v>0.9953372000116459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9823791769536059</v>
+        <v>0.9844757342371177</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>498543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>494345</v>
+        <v>494595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501025</v>
+        <v>501011</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9915298699992953</v>
+        <v>0.9915298699992952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9831807996652091</v>
+        <v>0.9836773275602018</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9964663892174637</v>
+        <v>0.9964381193760419</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1120</v>
@@ -1071,19 +1071,19 @@
         <v>965560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>959615</v>
+        <v>959759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968839</v>
+        <v>968965</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9933677355429501</v>
+        <v>0.99336773554295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9872516183619314</v>
+        <v>0.9873991308160127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9967406815884976</v>
+        <v>0.9968703607516898</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6781</v>
+        <v>6139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0051132689765812</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01805584941681142</v>
+        <v>0.01634562713484851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>3137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7348</v>
+        <v>7022</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008298174821005814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002884864214825265</v>
+        <v>0.002877767471289448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01943672675969947</v>
+        <v>0.01857512187580226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1217,19 +1217,19 @@
         <v>5058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2227</v>
+        <v>2196</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10574</v>
+        <v>10384</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006710946154095378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002955561133355848</v>
+        <v>0.002913434582381016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01403054529303733</v>
+        <v>0.0137787571806653</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>373660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>368799</v>
+        <v>369441</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>375580</v>
@@ -1255,7 +1255,7 @@
         <v>0.9948867310234188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819441505831888</v>
+        <v>0.9836543728651517</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>374916</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>370705</v>
+        <v>371031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>376962</v>
+        <v>376965</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9917018251789942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805632732403017</v>
+        <v>0.9814248781241971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971151357851749</v>
+        <v>0.9971222325287106</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>794</v>
@@ -1288,19 +1288,19 @@
         <v>748575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>743059</v>
+        <v>743249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>751406</v>
+        <v>751437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9932890538459046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9859694547069625</v>
+        <v>0.9862212428193347</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970444388666442</v>
+        <v>0.9970865654176191</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7302</v>
+        <v>7322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006127146378076586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001341672998462552</v>
+        <v>0.001344865553232114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01684990381084891</v>
+        <v>0.01689593300457955</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1413,19 +1413,19 @@
         <v>11167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5956</v>
+        <v>6381</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17396</v>
+        <v>18381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02275526083681373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01213722387059702</v>
+        <v>0.01300230323040479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03544965732484286</v>
+        <v>0.03745582855030197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1434,19 +1434,19 @@
         <v>13822</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7906</v>
+        <v>8719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21094</v>
+        <v>21962</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01495740023148842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008555180943238453</v>
+        <v>0.009434941400928471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02282637366307637</v>
+        <v>0.02376567804578828</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>430704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426057</v>
+        <v>426037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>432778</v>
+        <v>432776</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9938728536219232</v>
+        <v>0.9938728536219233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9831500961891509</v>
+        <v>0.9831040669954204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9986583270015376</v>
+        <v>0.9986551344467678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>650</v>
@@ -1484,19 +1484,19 @@
         <v>479567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>473338</v>
+        <v>472353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484778</v>
+        <v>484353</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9772447391631863</v>
+        <v>0.9772447391631864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9645503426751573</v>
+        <v>0.9625441714496978</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.987862776129403</v>
+        <v>0.9869976967695951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1073</v>
@@ -1505,19 +1505,19 @@
         <v>910271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>902999</v>
+        <v>902131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>916187</v>
+        <v>915374</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9850425997685116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9771736263369238</v>
+        <v>0.976234321954212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914448190567615</v>
+        <v>0.9905650585990716</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>8631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1630,19 +1630,19 @@
         <v>20929</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1651,19 +1651,19 @@
         <v>29560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1557637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1549902</v>
+        <v>1548462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1562513</v>
+        <v>1562126</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9944892409672965</v>
+        <v>0.9944892409672963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.989550992605526</v>
+        <v>0.9886312841723013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976026093642835</v>
+        <v>0.9973555168305236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2341</v>
@@ -1701,19 +1701,19 @@
         <v>1674169</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1664695</v>
+        <v>1665998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1680614</v>
+        <v>1681368</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9876531317728229</v>
+        <v>0.9876531317728228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9820642266944197</v>
+        <v>0.9828329940848263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9914552808040062</v>
+        <v>0.9919004590343695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3791</v>
@@ -1722,19 +1722,19 @@
         <v>3231805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3221211</v>
+        <v>3221143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3240634</v>
+        <v>3240664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9909361668309242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9876878376029756</v>
+        <v>0.987667222347842</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9936435411466541</v>
+        <v>0.9936526469197612</v>
       </c>
     </row>
     <row r="18">
